--- a/data/trans_camb/P57GLOBAL_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P57GLOBAL_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,64</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,59; 15,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,87; 13,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,75; 6,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,4; 14,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,44; 12,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,92; -4,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 11,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,21; 10,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,62; -3,52</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,81%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,06; 25,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,17; 20,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,1; 9,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,04; 20,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,56; 18,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,18; -6,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,57; 16,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,17; 14,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,0; -5,22</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,34</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,39</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,41; -10,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 7,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,06; -13,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,68; -1,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,24; 13,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,92; -9,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,11; -7,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,35; 8,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,43; -12,77</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,02%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,76; -14,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 9,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,19; -17,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,78; -2,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,28; 17,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,75; -12,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,2; -9,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,93; 11,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,63; -16,68</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,9</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,4</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,93; 2,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,41; 15,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,72; -2,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; 5,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,09; 16,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,17; -1,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,07; 2,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,43; 14,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,82; -3,1</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,89%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,18; 4,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,32; 22,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,81; -3,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,44; 7,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,94; 23,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,05; -1,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,2; 4,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,74; 20,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,31; -4,54</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,34</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,88</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 7,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,16; 25,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 8,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 7,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,88; 22,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,72; 2,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 5,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,73; 23,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,19; 3,25</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,42%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,43; 11,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,5; 42,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; 12,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 12,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,85; 35,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,03; 3,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 8,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,26; 35,92</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,13; 5,0</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,82</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,67</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,42</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,47</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 8,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,63; 14,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,88; -2,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,46; 14,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,93; 15,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,3; -4,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,25; 10,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,55; 13,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,32; -4,44</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,14%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,65%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 12,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,27; 21,74</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,06; -3,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,25; 21,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,79; 22,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,34; -6,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,34; 15,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,03; 20,03</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,39; -6,51</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,48</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,54</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,32</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 0,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,25; 13,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,5; -4,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 5,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,56; 14,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; -5,32</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 2,4</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,47; 13,41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,56; -5,55</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,13%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,42%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,26%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; 1,02</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,92; 19,52</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,05; -6,43</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 7,38</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,37; 20,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,3; -7,45</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 3,39</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,49; 18,99</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,31; -7,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57GLOBAL_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>-12,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>-18,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,74</t>
+          <t>-14,92</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>-8,89</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-11,64</t>
+          <t>-16,71</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 15,83</t>
+          <t>-17,56; -8,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 13,32</t>
+          <t>-2,12; 6,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 6,29</t>
+          <t>-24,46; -13,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 14,46</t>
+          <t>-10,04; -0,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 12,87</t>
+          <t>3,56; 11,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,92; -4,07</t>
+          <t>-19,28; -10,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 11,91</t>
+          <t>-11,9; -5,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 10,19</t>
+          <t>1,95; 8,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,62; -3,52</t>
+          <t>-20,27; -13,35</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>-16,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,51%</t>
+          <t>-24,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>-6,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-20,48%</t>
+          <t>-19,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>-11,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-15,81%</t>
+          <t>-21,63%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 25,5</t>
+          <t>-22,25; -10,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 20,49</t>
+          <t>-2,65; 9,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 9,58</t>
+          <t>-31,18; -17,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 20,22</t>
+          <t>-12,63; -0,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 18,21</t>
+          <t>4,52; 15,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,18; -6,57</t>
+          <t>-24,37; -13,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 16,98</t>
+          <t>-15,19; -6,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 14,4</t>
+          <t>2,57; 10,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-26,0; -5,22</t>
+          <t>-25,71; -17,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-15,87</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-18,97</t>
+          <t>-18,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,55</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,93</t>
+          <t>-6,12</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,34</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>11,9</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-16,39</t>
+          <t>-13,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,41; -10,63</t>
+          <t>-5,93; 2,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 7,44</t>
+          <t>7,41; 15,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,06; -13,09</t>
+          <t>-44,45; -4,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -1,68</t>
+          <t>-3,43; 5,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,24; 13,22</t>
+          <t>9,09; 16,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,92; -9,03</t>
+          <t>-10,09; -2,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,11; -7,56</t>
+          <t>-3,07; 2,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 8,88</t>
+          <t>9,43; 14,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,43; -12,77</t>
+          <t>-32,25; -4,81</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-20,22%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-24,17%</t>
+          <t>-26,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,77%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,99%</t>
+          <t>-8,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-14,55%</t>
+          <t>-0,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-21,02%</t>
+          <t>-18,55%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,76; -14,19</t>
+          <t>-8,18; 4,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 9,88</t>
+          <t>10,32; 22,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,19; -17,35</t>
+          <t>-62,83; -5,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,78; -2,26</t>
+          <t>-4,44; 7,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 17,53</t>
+          <t>11,94; 23,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,75; -12,16</t>
+          <t>-13,14; -3,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,2; -9,93</t>
+          <t>-4,2; 4,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 11,64</t>
+          <t>12,74; 20,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,63; -16,68</t>
+          <t>-44,6; -6,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,27</t>
+          <t>21,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,56</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,5</t>
+          <t>18,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>19,88</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,4</t>
+          <t>-1,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 2,84</t>
+          <t>-3,65; 7,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 15,07</t>
+          <t>17,16; 25,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,72; -2,11</t>
+          <t>-4,05; 7,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 5,08</t>
+          <t>-2,63; 7,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,09; 16,36</t>
+          <t>13,88; 22,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -1,4</t>
+          <t>-14,23; 0,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,95</t>
+          <t>-1,54; 5,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,43; 14,73</t>
+          <t>16,73; 23,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,82; -3,1</t>
+          <t>-7,24; 2,12</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,77%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,15%</t>
+          <t>-7,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,42%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>-2,69%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 4,19</t>
+          <t>-5,43; 11,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,32; 22,25</t>
+          <t>25,5; 42,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,81; -3,09</t>
+          <t>-6,03; 12,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 7,1</t>
+          <t>-3,8; 12,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,94; 23,04</t>
+          <t>19,85; 35,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,05; -1,94</t>
+          <t>-21,2; 0,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 4,18</t>
+          <t>-2,3; 8,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,74; 20,81</t>
+          <t>24,26; 35,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,31; -4,54</t>
+          <t>-10,61; 3,29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,45</t>
+          <t>10,82</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>-8,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,34</t>
+          <t>11,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-12,55</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,88</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-10,47</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 7,06</t>
+          <t>0,2; 8,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,16; 25,97</t>
+          <t>6,63; 14,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 8,05</t>
+          <t>-12,68; -3,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 7,77</t>
+          <t>7,46; 14,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,88; 22,87</t>
+          <t>7,93; 15,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 2,28</t>
+          <t>-25,99; -7,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 5,72</t>
+          <t>5,25; 10,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,73; 23,12</t>
+          <t>8,55; 13,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 3,25</t>
+          <t>-17,52; -6,73</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>-11,52%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,99%</t>
+          <t>-17,79%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,42%</t>
+          <t>-14,92%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 11,53</t>
+          <t>0,29; 12,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>25,5; 42,86</t>
+          <t>9,27; 21,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 12,84</t>
+          <t>-17,92; -5,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 12,15</t>
+          <t>10,25; 21,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,85; 35,99</t>
+          <t>10,79; 22,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 3,47</t>
+          <t>-37,65; -10,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 8,88</t>
+          <t>7,34; 15,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,26; 35,92</t>
+          <t>12,03; 20,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 5,0</t>
+          <t>-24,67; -9,73</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>10,82</t>
+          <t>11,48</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>-11,9</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,25</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>11,67</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-8,42</t>
+          <t>-9,75</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>8,09</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>11,27</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>-10,85</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,2; 8,41</t>
+          <t>-3,8; 0,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,63; 14,63</t>
+          <t>9,25; 13,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,88; -2,25</t>
+          <t>-25,65; -6,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,46; 14,8</t>
+          <t>1,0; 5,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,93; 15,15</t>
+          <t>10,56; 14,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,3; -4,45</t>
+          <t>-14,6; -7,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,67</t>
+          <t>-0,68; 2,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,55; 13,76</t>
+          <t>10,47; 13,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -4,44</t>
+          <t>-19,69; -7,88</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-9,14%</t>
+          <t>-16,89%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-11,93%</t>
+          <t>-13,49%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-10,65%</t>
+          <t>-15,2%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,29; 12,27</t>
+          <t>-5,29; 1,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>9,27; 21,74</t>
+          <t>12,92; 19,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,06; -3,3</t>
+          <t>-36,76; -9,51</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10,25; 21,6</t>
+          <t>1,37; 7,38</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,79; 22,29</t>
+          <t>14,37; 20,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,34; -6,47</t>
+          <t>-20,48; -10,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,34; 15,52</t>
+          <t>-0,94; 3,39</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>12,03; 20,03</t>
+          <t>14,49; 18,99</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,39; -6,51</t>
+          <t>-27,36; -11,06</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>11,48</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-7,14</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>12,49</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-7,54</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>12,0</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-7,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 0,71</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>9,25; 13,44</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-10,5; -4,39</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 5,23</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>10,56; 14,63</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-9,72; -5,32</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 2,4</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>10,47; 13,41</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-9,56; -5,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-2,22%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>16,3%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-10,13%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>17,28%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-10,42%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>1,07%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>16,81%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-10,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-5,29; 1,02</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>12,92; 19,52</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-15,05; -6,43</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 7,38</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>14,37; 20,64</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-13,3; -7,45</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 3,39</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>14,49; 18,99</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-13,31; -7,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P57GLOBAL_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,56; -8,06</t>
+          <t>-17,68; -7,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 6,72</t>
+          <t>-2,17; 6,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,46; -13,37</t>
+          <t>-24,44; -13,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,04; -0,73</t>
+          <t>-9,82; -0,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 11,51</t>
+          <t>3,64; 11,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,28; -10,15</t>
+          <t>-19,51; -10,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,9; -5,23</t>
+          <t>-12,42; -5,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 8,01</t>
+          <t>2,22; 8,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,27; -13,35</t>
+          <t>-20,24; -13,16</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,25; -10,71</t>
+          <t>-22,37; -10,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 9,04</t>
+          <t>-2,84; 9,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,18; -17,78</t>
+          <t>-30,95; -17,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,63; -0,97</t>
+          <t>-12,38; -0,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 15,45</t>
+          <t>4,55; 15,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,37; -13,47</t>
+          <t>-24,63; -13,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,19; -6,88</t>
+          <t>-15,71; -7,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 10,75</t>
+          <t>2,84; 10,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,71; -17,56</t>
+          <t>-25,8; -17,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 2,84</t>
+          <t>-5,57; 2,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 15,07</t>
+          <t>7,54; 15,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-44,45; -4,02</t>
+          <t>-43,09; -4,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 5,08</t>
+          <t>-3,7; 4,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,09; 16,36</t>
+          <t>9,16; 16,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,09; -2,21</t>
+          <t>-10,51; -2,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,95</t>
+          <t>-3,11; 2,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 14,73</t>
+          <t>9,19; 14,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-32,25; -4,81</t>
+          <t>-34,71; -4,59</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 4,19</t>
+          <t>-7,76; 4,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 22,25</t>
+          <t>10,39; 22,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,83; -5,71</t>
+          <t>-60,43; -5,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 7,1</t>
+          <t>-4,89; 6,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,94; 23,04</t>
+          <t>12,06; 22,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -3,03</t>
+          <t>-13,86; -3,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 4,18</t>
+          <t>-4,22; 3,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,74; 20,81</t>
+          <t>12,34; 20,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-44,6; -6,74</t>
+          <t>-46,45; -6,38</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 7,06</t>
+          <t>-3,49; 6,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,16; 25,97</t>
+          <t>16,64; 25,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 7,48</t>
+          <t>-3,72; 7,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 7,77</t>
+          <t>-2,6; 7,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,88; 22,87</t>
+          <t>13,63; 22,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 0,38</t>
+          <t>-14,63; 0,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 5,72</t>
+          <t>-1,65; 5,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,73; 23,12</t>
+          <t>16,73; 23,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 2,12</t>
+          <t>-7,39; 2,13</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 11,53</t>
+          <t>-5,32; 10,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,5; 42,86</t>
+          <t>24,5; 42,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 12,04</t>
+          <t>-5,46; 11,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 12,15</t>
+          <t>-3,74; 10,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,85; 35,99</t>
+          <t>19,63; 35,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 0,58</t>
+          <t>-21,35; 0,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 8,88</t>
+          <t>-2,46; 8,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,26; 35,92</t>
+          <t>24,44; 36,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 3,29</t>
+          <t>-11,14; 3,19</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 8,41</t>
+          <t>0,64; 8,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,63; 14,63</t>
+          <t>7,25; 14,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,68; -3,83</t>
+          <t>-12,54; -3,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,46; 14,8</t>
+          <t>7,18; 14,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,93; 15,15</t>
+          <t>7,99; 15,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,99; -7,14</t>
+          <t>-27,05; -7,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,67</t>
+          <t>5,52; 10,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,55; 13,76</t>
+          <t>8,64; 13,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,52; -6,73</t>
+          <t>-17,33; -7,06</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,29; 12,27</t>
+          <t>0,87; 12,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,27; 21,74</t>
+          <t>10,17; 21,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,92; -5,71</t>
+          <t>-17,48; -4,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,25; 21,6</t>
+          <t>9,89; 21,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,79; 22,29</t>
+          <t>10,74; 22,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,65; -10,29</t>
+          <t>-36,63; -10,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,34; 15,52</t>
+          <t>7,72; 15,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12,03; 20,03</t>
+          <t>11,98; 20,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,67; -9,73</t>
+          <t>-24,67; -10,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,71</t>
+          <t>-3,81; 0,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,25; 13,44</t>
+          <t>9,39; 13,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-25,65; -6,63</t>
+          <t>-25,26; -6,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,23</t>
+          <t>0,99; 5,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,56; 14,63</t>
+          <t>10,43; 14,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,6; -7,08</t>
+          <t>-13,74; -6,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,4</t>
+          <t>-0,78; 2,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,47; 13,41</t>
+          <t>10,6; 13,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-19,69; -7,88</t>
+          <t>-19,1; -7,57</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 1,02</t>
+          <t>-5,34; 0,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>12,92; 19,52</t>
+          <t>13,08; 20,09</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-36,76; -9,51</t>
+          <t>-35,96; -9,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,38</t>
+          <t>1,34; 7,32</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>14,37; 20,64</t>
+          <t>14,24; 20,41</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,48; -10,0</t>
+          <t>-18,93; -9,53</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,39</t>
+          <t>-1,09; 3,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>14,49; 18,99</t>
+          <t>14,65; 18,99</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-27,36; -11,06</t>
+          <t>-26,82; -10,67</t>
         </is>
       </c>
     </row>
